--- a/file/录入比赛结果模板.xlsx
+++ b/file/录入比赛结果模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\galop-server\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E173652-101C-47A0-A1B0-9C407A5D55F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E9BA1A-BF59-4510-8737-265324EFE8A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="2355" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="实例" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
   <si>
     <t>比赛 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,8 +48,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>仅用于示例！
-如想录入比赛结果请在名为录入比赛结果的工作表中开始录入数据！</t>
+一次仅允许录入一场比赛！如想录入比赛结果请在名为录入比赛结果的工作表中开始录入数据！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,7 +396,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A5" sqref="A5:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -435,18 +439,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
